--- a/content/dadesref/entitats/Festius_generals_Catalunya.xlsx
+++ b/content/dadesref/entitats/Festius_generals_Catalunya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/81.Festius_generals_Catalunya/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\15.Modelatge\81.Festius_generals_Catalunya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{DD0DF9E0-BC72-4D16-AB99-645F1C74797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E1366D1-3D59-4401-ABCD-7D266ED9B938}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38CDF4-E5AB-413A-B6CE-825A12CC40E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Festius_generals_Cat" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="187">
   <si>
     <t>Codi</t>
   </si>
@@ -555,6 +555,45 @@
   </si>
   <si>
     <t>F2022-G012</t>
+  </si>
+  <si>
+    <t>F2023-G002</t>
+  </si>
+  <si>
+    <t>F2023-G003</t>
+  </si>
+  <si>
+    <t>F2023-G004</t>
+  </si>
+  <si>
+    <t>F2023-G005</t>
+  </si>
+  <si>
+    <t>F2023-G006</t>
+  </si>
+  <si>
+    <t>F2023-G007</t>
+  </si>
+  <si>
+    <t>F2023-G008</t>
+  </si>
+  <si>
+    <t>F2023-G009</t>
+  </si>
+  <si>
+    <t>F2023-G010</t>
+  </si>
+  <si>
+    <t>F2023-G011</t>
+  </si>
+  <si>
+    <t>F2023-G012</t>
+  </si>
+  <si>
+    <t>F2023-G001</t>
+  </si>
+  <si>
+    <t>F2023-G013</t>
   </si>
 </sst>
 </file>
@@ -610,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -657,12 +696,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -700,6 +759,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -864,7 +929,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D150" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D163" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F150">
     <sortCondition ref="C4:C150"/>
   </sortState>
@@ -1141,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3232,6 +3297,188 @@
         <v>16</v>
       </c>
     </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B151" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C151" s="11">
+        <v>44932</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B152" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C152" s="11">
+        <v>45023</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C153" s="11">
+        <v>45026</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C154" s="11">
+        <v>45047</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C155" s="11">
+        <v>45101</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C156" s="11">
+        <v>45153</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B157" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C157" s="11">
+        <v>45180</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C158" s="11">
+        <v>45211</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C159" s="11">
+        <v>45231</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B160" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C160" s="11">
+        <v>45266</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B161" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C161" s="11">
+        <v>45268</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C162" s="11">
+        <v>45285</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B163" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C163" s="11">
+        <v>45286</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3243,15 +3490,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -3260,7 +3498,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3392,15 +3630,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3416,7 +3655,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3432,4 +3671,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/dadesref/entitats/Festius_generals_Catalunya.xlsx
+++ b/content/dadesref/entitats/Festius_generals_Catalunya.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\15.Modelatge\81.Festius_generals_Catalunya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\81.Festius_generals_Catalunya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38CDF4-E5AB-413A-B6CE-825A12CC40E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513F9729-B038-4F7E-98B5-98250AAE0BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1044" yWindow="1272" windowWidth="13872" windowHeight="10968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Festius_generals_Cat" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="201">
   <si>
     <t>Codi</t>
   </si>
@@ -594,6 +594,48 @@
   </si>
   <si>
     <t>F2023-G013</t>
+  </si>
+  <si>
+    <t>F2024-G001</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>F2024-G002</t>
+  </si>
+  <si>
+    <t>F2024-G003</t>
+  </si>
+  <si>
+    <t>F2024-G004</t>
+  </si>
+  <si>
+    <t>F2024-G005</t>
+  </si>
+  <si>
+    <t>F2024-G006</t>
+  </si>
+  <si>
+    <t>F2024-G007</t>
+  </si>
+  <si>
+    <t>F2024-G008</t>
+  </si>
+  <si>
+    <t>F2024-G009</t>
+  </si>
+  <si>
+    <t>F2024-G010</t>
+  </si>
+  <si>
+    <t>F2024-G011</t>
+  </si>
+  <si>
+    <t>F2024-G012</t>
+  </si>
+  <si>
+    <t>F2024-G013</t>
   </si>
 </sst>
 </file>
@@ -929,7 +971,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D163" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D176" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F150">
     <sortCondition ref="C4:C150"/>
   </sortState>
@@ -1206,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3479,6 +3521,188 @@
         <v>16</v>
       </c>
     </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C164" s="11">
+        <v>45292</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C165" s="11">
+        <v>45297</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C166" s="11">
+        <v>45380</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C167" s="11">
+        <v>45383</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168" s="11">
+        <v>45413</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C169" s="11">
+        <v>45467</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C170" s="11">
+        <v>45519</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C171" s="11">
+        <v>45546</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C172" s="11">
+        <v>45577</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C173" s="11">
+        <v>45597</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C174" s="11">
+        <v>45632</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C175" s="11">
+        <v>45651</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C176" s="11">
+        <v>45652</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3490,26 +3714,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a50253f552cd15765e58fb5d1e43959a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8405c2c6377cc88ff03d0ac4a3d3549" ns2:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns1:PublishingStartDate" minOccurs="0"/>
-                <xsd:element ref="ns1:PublishingExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3517,17 +3737,46 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="PublishingStartDate" ma:index="8" nillable="true" ma:displayName="Data d'inici de la planificació" ma:description="Data d'inici de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina començarà a aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingStartDate">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="PublishingExpirationDate" ma:index="9" nillable="true" ma:displayName="Data de finalització de la planificació" ma:description="Data de finalització de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina deixarà d'aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingExpirationDate">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3540,8 +3789,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -3630,6 +3879,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3640,6 +3899,10 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4446F6-0B01-4145-831A-1D5AE672C917}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3655,24 +3918,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
